--- a/math-stat/ргр1.xlsx
+++ b/math-stat/ргр1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulag\Documents\ITMO\math-stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F67BAA-AFE4-4C4B-9099-6DB4A75481A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C24C05F-0264-492B-A301-AE1BEA966567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{4E273E63-EDAF-44EE-A1AD-C0DF08186711}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{4E273E63-EDAF-44EE-A1AD-C0DF08186711}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>x наим</t>
   </si>
@@ -68,6 +68,18 @@
   <si>
     <t>Функция</t>
   </si>
+  <si>
+    <t>мат ожидание</t>
+  </si>
+  <si>
+    <t>сигма ^2</t>
+  </si>
+  <si>
+    <t>единиц</t>
+  </si>
+  <si>
+    <t>нулей</t>
+  </si>
 </sst>
 </file>
 
@@ -82,12 +94,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,12 +120,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3837,15 +3856,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>125474</xdr:colOff>
+      <xdr:colOff>129510</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>163757</xdr:rowOff>
+      <xdr:rowOff>18460</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>427893</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122360</xdr:rowOff>
+      <xdr:colOff>431929</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>158683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4298,10 +4317,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE477318-0FA5-4D62-9448-072A392A158F}">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4402,6 +4421,9 @@
       </c>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
       <c r="C2">
         <f>SUM(A1:AD1)</f>
         <v>18</v>
@@ -4409,6 +4431,15 @@
       <c r="D2" s="1">
         <f>C2/30</f>
         <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <f>30-18</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -4418,10 +4449,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C80C-EA7D-4004-8413-15318D3F289D}">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G42" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T54" sqref="T54"/>
+    <sheetView topLeftCell="A73" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4625,7 +4656,7 @@
         <v>-1.5</v>
       </c>
       <c r="B15" s="2">
-        <f>A15+$I$9</f>
+        <f t="shared" ref="B15:B26" si="0">A15+$I$9</f>
         <v>-1.1128533360032309</v>
       </c>
       <c r="C15" s="2">
@@ -4633,7 +4664,7 @@
         <v>-1.3064266680016154</v>
       </c>
       <c r="D15">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A15, $A$1:$I$5, "&lt;="&amp;B15)</f>
+        <f t="shared" ref="D15:D27" si="1">COUNTIFS($A$1:$I$5, "&gt;"&amp;A15, $A$1:$I$5, "&lt;="&amp;B15)</f>
         <v>2</v>
       </c>
       <c r="E15">
@@ -4651,19 +4682,19 @@
         <v>-1.1128533360032309</v>
       </c>
       <c r="B16" s="2">
-        <f>A16+$I$9</f>
+        <f t="shared" si="0"/>
         <v>-0.72570667200646166</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" ref="C16:C27" si="0">AVERAGE(A16:B16)</f>
+        <f t="shared" ref="C16:C27" si="2">AVERAGE(A16:B16)</f>
         <v>-0.91928000400484633</v>
       </c>
       <c r="D16">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A16, $A$1:$I$5, "&lt;="&amp;B16)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E16">
-        <f t="shared" ref="E16:E27" si="1">D16/40</f>
+        <f t="shared" ref="E16:E27" si="3">D16/40</f>
         <v>0</v>
       </c>
       <c r="F16">
@@ -4673,79 +4704,79 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="2">
-        <f t="shared" ref="A17:A27" si="2">B16</f>
+        <f t="shared" ref="A17:A27" si="4">B16</f>
         <v>-0.72570667200646166</v>
       </c>
       <c r="B17" s="2">
-        <f>A17+$I$9</f>
+        <f t="shared" si="0"/>
         <v>-0.33856000800969244</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.53213334000807699</v>
       </c>
       <c r="D17">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A17, $A$1:$I$5, "&lt;="&amp;B17)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="F17">
-        <f t="shared" ref="F17:F27" si="3">F16+E17</f>
+        <f t="shared" ref="F17:F27" si="5">F16+E17</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
+        <f t="shared" si="4"/>
+        <v>-0.33856000800969244</v>
+      </c>
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>4.8586655987076788E-2</v>
+      </c>
+      <c r="C18" s="2">
         <f t="shared" si="2"/>
-        <v>-0.33856000800969244</v>
-      </c>
-      <c r="B18" s="2">
-        <f>A18+$I$9</f>
-        <v>4.8586655987076788E-2</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
         <v>-0.14498667601130782</v>
       </c>
       <c r="D18">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A18, $A$1:$I$5, "&lt;="&amp;B18)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="2">
+        <f t="shared" si="4"/>
+        <v>4.8586655987076788E-2</v>
+      </c>
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.43573331998384601</v>
+      </c>
+      <c r="C19" s="2">
         <f t="shared" si="2"/>
-        <v>4.8586655987076788E-2</v>
-      </c>
-      <c r="B19" s="2">
-        <f>A19+$I$9</f>
-        <v>0.43573331998384601</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
         <v>0.2421599879854614</v>
       </c>
       <c r="D19">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A19, $A$1:$I$5, "&lt;="&amp;B19)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4755,101 +4786,101 @@
         <v>0.43573331998384601</v>
       </c>
       <c r="B20" s="2">
-        <f>A20+$I$9</f>
+        <f t="shared" si="0"/>
         <v>0.82287998398061524</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.62930665198223057</v>
       </c>
       <c r="D20">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A20, $A$1:$I$5, "&lt;="&amp;B20)</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="E20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.82287998398061524</v>
+      </c>
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>1.2100266479773845</v>
+      </c>
+      <c r="C21" s="2">
         <f t="shared" si="2"/>
-        <v>0.82287998398061524</v>
-      </c>
-      <c r="B21" s="2">
-        <f>A21+$I$9</f>
-        <v>1.2100266479773845</v>
-      </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
         <v>1.0164533159789999</v>
       </c>
       <c r="D21">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A21, $A$1:$I$5, "&lt;="&amp;B21)</f>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="E21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.15</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2100266479773845</v>
+      </c>
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>1.5971733119741538</v>
+      </c>
+      <c r="C22" s="2">
         <f t="shared" si="2"/>
-        <v>1.2100266479773845</v>
-      </c>
-      <c r="B22" s="2">
-        <f>A22+$I$9</f>
-        <v>1.5971733119741538</v>
-      </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
         <v>1.4035999799757692</v>
       </c>
       <c r="D22">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A22, $A$1:$I$5, "&lt;="&amp;B22)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" s="2">
+        <f t="shared" si="4"/>
+        <v>1.5971733119741538</v>
+      </c>
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>1.9843199759709229</v>
+      </c>
+      <c r="C23" s="2">
         <f t="shared" si="2"/>
-        <v>1.5971733119741538</v>
-      </c>
-      <c r="B23" s="2">
-        <f>A23+$I$9</f>
-        <v>1.9843199759709229</v>
-      </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
         <v>1.7907466439725384</v>
       </c>
       <c r="D23">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A23, $A$1:$I$5, "&lt;="&amp;B23)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="E23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.125</v>
       </c>
       <c r="F23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
     </row>
@@ -4859,100 +4890,100 @@
         <v>1.9843199759709229</v>
       </c>
       <c r="B24" s="2">
-        <f>A24+$I$9</f>
+        <f t="shared" si="0"/>
         <v>2.371466639967692</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2.1778933079693075</v>
       </c>
       <c r="D24">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A24, $A$1:$I$5, "&lt;="&amp;B24)</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.22500000000000001</v>
       </c>
       <c r="F24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
+        <f t="shared" si="4"/>
+        <v>2.371466639967692</v>
+      </c>
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>2.7586133039644611</v>
+      </c>
+      <c r="C25" s="2">
         <f t="shared" si="2"/>
-        <v>2.371466639967692</v>
-      </c>
-      <c r="B25" s="2">
-        <f>A25+$I$9</f>
-        <v>2.7586133039644611</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="0"/>
         <v>2.5650399719660766</v>
       </c>
       <c r="D25">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A25, $A$1:$I$5, "&lt;="&amp;B25)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="2">
+        <f t="shared" si="4"/>
+        <v>2.7586133039644611</v>
+      </c>
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>3.1457599679612303</v>
+      </c>
+      <c r="C26" s="2">
         <f t="shared" si="2"/>
-        <v>2.7586133039644611</v>
-      </c>
-      <c r="B26" s="2">
-        <f>A26+$I$9</f>
-        <v>3.1457599679612303</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="0"/>
         <v>2.9521866359628457</v>
       </c>
       <c r="D26">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A26, $A$1:$I$5, "&lt;="&amp;B26)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92500000000000004</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>3.1457599679612303</v>
       </c>
       <c r="B27" s="2">
         <v>3.6</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.3728799839806154</v>
       </c>
       <c r="D27">
-        <f>COUNTIFS($A$1:$I$5, "&gt;"&amp;A27, $A$1:$I$5, "&lt;="&amp;B27)</f>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="E27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
@@ -5413,6 +5444,403 @@
       </c>
       <c r="J70">
         <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
+        <v>9</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>-1.5</v>
+      </c>
+      <c r="B82">
+        <v>-1.1128533360032309</v>
+      </c>
+      <c r="C82">
+        <v>-1.3064266680016154</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="E82">
+        <v>0.05</v>
+      </c>
+      <c r="F82">
+        <v>0.05</v>
+      </c>
+      <c r="G82">
+        <f>C82*E82</f>
+        <v>-6.5321333400080769E-2</v>
+      </c>
+      <c r="H82">
+        <f>POWER(C82-G82,2)*E82</f>
+        <v>7.7017122578819375E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83">
+        <v>-1.1128533360032309</v>
+      </c>
+      <c r="B83">
+        <v>-0.72570667200646166</v>
+      </c>
+      <c r="C83">
+        <v>-0.91928000400484633</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0.05</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G94" si="6">C83*E83</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:H94" si="7">POWER(C83-G83,2)*E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84">
+        <v>-0.72570667200646166</v>
+      </c>
+      <c r="B84">
+        <v>-0.33856000800969244</v>
+      </c>
+      <c r="C84">
+        <v>-0.53213334000807699</v>
+      </c>
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>0.05</v>
+      </c>
+      <c r="F84">
+        <v>0.1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>-2.6606667000403851E-2</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>1.2777860856110346E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>-0.33856000800969244</v>
+      </c>
+      <c r="B85">
+        <v>4.8586655987076788E-2</v>
+      </c>
+      <c r="C85">
+        <v>-0.14498667601130782</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F85">
+        <v>0.125</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>-3.624666900282696E-3</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>4.995804404976387E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86">
+        <v>4.8586655987076788E-2</v>
+      </c>
+      <c r="B86">
+        <v>0.43573331998384601</v>
+      </c>
+      <c r="C86">
+        <v>0.2421599879854614</v>
+      </c>
+      <c r="D86">
+        <v>3</v>
+      </c>
+      <c r="E86">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F86">
+        <v>0.2</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>1.8161999098909604E-2</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>3.7631324268914833E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87">
+        <v>0.43573331998384601</v>
+      </c>
+      <c r="B87">
+        <v>0.82287998398061524</v>
+      </c>
+      <c r="C87">
+        <v>0.62930665198223057</v>
+      </c>
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>0.05</v>
+      </c>
+      <c r="F87">
+        <v>0.25</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>3.146533259911153E-2</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>1.7870712158087425E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88">
+        <v>0.82287998398061524</v>
+      </c>
+      <c r="B88">
+        <v>1.2100266479773845</v>
+      </c>
+      <c r="C88">
+        <v>1.0164533159789999</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>0.15</v>
+      </c>
+      <c r="F88">
+        <v>0.4</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>0.15246799739684999</v>
+      </c>
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>0.11197059460882484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89">
+        <v>1.2100266479773845</v>
+      </c>
+      <c r="B89">
+        <v>1.5971733119741538</v>
+      </c>
+      <c r="C89">
+        <v>1.4035999799757692</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>0.125</v>
+      </c>
+      <c r="F89">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>0.17544999749697116</v>
+      </c>
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>0.18854404743283398</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90">
+        <v>1.5971733119741538</v>
+      </c>
+      <c r="B90">
+        <v>1.9843199759709229</v>
+      </c>
+      <c r="C90">
+        <v>1.7907466439725384</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>0.125</v>
+      </c>
+      <c r="F90">
+        <v>0.65</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>0.22384333049656729</v>
+      </c>
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>0.30689824922274717</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91">
+        <v>1.9843199759709229</v>
+      </c>
+      <c r="B91">
+        <v>2.371466639967692</v>
+      </c>
+      <c r="C91">
+        <v>2.1778933079693075</v>
+      </c>
+      <c r="D91">
+        <v>9</v>
+      </c>
+      <c r="E91">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F91">
+        <v>0.875</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>0.49002599429309418</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>0.64100161542972522</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92">
+        <v>2.371466639967692</v>
+      </c>
+      <c r="B92">
+        <v>2.7586133039644611</v>
+      </c>
+      <c r="C92">
+        <v>2.5650399719660766</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F92">
+        <v>0.9</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>6.4125999299151915E-2</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>0.15636426746701648</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93">
+        <v>2.7586133039644611</v>
+      </c>
+      <c r="B93">
+        <v>3.1457599679612303</v>
+      </c>
+      <c r="C93">
+        <v>2.9521866359628457</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F93">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>7.3804665899071142E-2</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>0.20712706913970547</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94">
+        <v>3.1457599679612303</v>
+      </c>
+      <c r="B94">
+        <v>3.6</v>
+      </c>
+      <c r="C94">
+        <v>3.3728799839806154</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>0.25296599879854614</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>0.73003974562009954</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G95" s="3">
+        <f>SUM(G82:G94)</f>
+        <v>1.3867586480775058</v>
+      </c>
+      <c r="H95" s="3">
+        <f>SUM(H82:H94)</f>
+        <v>2.453873997381359</v>
       </c>
     </row>
   </sheetData>

--- a/math-stat/ргр1.xlsx
+++ b/math-stat/ргр1.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kulag\Documents\ITMO\math-stat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C24C05F-0264-492B-A301-AE1BEA966567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43563402-7E9B-4A97-BC32-292906C10A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{4E273E63-EDAF-44EE-A1AD-C0DF08186711}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="1" xr2:uid="{4E273E63-EDAF-44EE-A1AD-C0DF08186711}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>x наим</t>
   </si>
@@ -79,6 +80,18 @@
   </si>
   <si>
     <t>нулей</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Таблица (x_i - m)^2</t>
+  </si>
+  <si>
+    <t>sigma^2</t>
   </si>
 </sst>
 </file>
@@ -158,37 +171,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -211,58 +194,63 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Лист2!$A$15:$A$27</c:f>
+              <c:f>Лист2!$C$15:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="13"/>
-                <c:pt idx="0" formatCode="General">
-                  <c:v>-1.5</c:v>
+                <c:pt idx="0">
+                  <c:v>-1.3064266680016154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1128533360032309</c:v>
+                  <c:v>-0.91928000400484633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.72570667200646166</c:v>
+                  <c:v>-0.53213334000807699</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.33856000800969244</c:v>
+                  <c:v>-0.14498667601130782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.8586655987076788E-2</c:v>
+                  <c:v>0.2421599879854614</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.43573331998384601</c:v>
+                  <c:v>0.62930665198223057</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82287998398061524</c:v>
+                  <c:v>1.0164533159789999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2100266479773845</c:v>
+                  <c:v>1.4035999799757692</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.5971733119741538</c:v>
+                  <c:v>1.7907466439725384</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9843199759709229</c:v>
+                  <c:v>2.1778933079693075</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.371466639967692</c:v>
+                  <c:v>2.5650399719660766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.7586133039644611</c:v>
+                  <c:v>2.9521866359628457</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1457599679612303</c:v>
+                  <c:v>3.3728799839806154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -329,7 +317,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
+        <c:gapWidth val="0"/>
         <c:overlap val="-27"/>
         <c:axId val="499617823"/>
         <c:axId val="499622623"/>
@@ -341,7 +329,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1229,6 +1217,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Функция распределения</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3855,16 +3868,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>129510</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>631129</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>18460</xdr:rowOff>
+      <xdr:rowOff>43024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>431929</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>158683</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>287209</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>1625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3891,16 +3904,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>411955</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>47623</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>602455</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>163282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>157161</xdr:rowOff>
+      <xdr:rowOff>89125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3963,16 +3976,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>3667</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>132255</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>52820</xdr:rowOff>
+      <xdr:rowOff>167120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>25975</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>68406</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>154563</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>1731</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4319,8 +4332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE477318-0FA5-4D62-9448-072A392A158F}">
   <dimension ref="A1:AD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:AD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4444,6 +4457,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4451,8 +4465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D9C80C-EA7D-4004-8413-15318D3F289D}">
   <dimension ref="A1:L95"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="118" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K90" sqref="K90"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4730,7 +4744,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f>B17</f>
         <v>-0.33856000800969244</v>
       </c>
       <c r="B18" s="2">
@@ -5847,4 +5861,345 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB9878C-C311-4663-B1E7-EC7527EFBD3A}">
+  <dimension ref="A1:K12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>1.63</v>
+      </c>
+      <c r="B1">
+        <v>0.25</v>
+      </c>
+      <c r="C1">
+        <v>1.04</v>
+      </c>
+      <c r="D1">
+        <v>1.48</v>
+      </c>
+      <c r="E1">
+        <v>1.05</v>
+      </c>
+      <c r="F1">
+        <v>2.09</v>
+      </c>
+      <c r="G1">
+        <v>2.31</v>
+      </c>
+      <c r="H1">
+        <v>0.69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1">
+        <f>COUNT(A1:H5)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1.27</v>
+      </c>
+      <c r="B2">
+        <v>-0.66</v>
+      </c>
+      <c r="C2">
+        <v>3.2</v>
+      </c>
+      <c r="D2">
+        <v>0.85</v>
+      </c>
+      <c r="E2">
+        <v>3.33</v>
+      </c>
+      <c r="F2">
+        <v>1.75</v>
+      </c>
+      <c r="G2">
+        <v>0.69</v>
+      </c>
+      <c r="H2">
+        <v>2.2599999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1.04</v>
+      </c>
+      <c r="B3">
+        <v>3.59</v>
+      </c>
+      <c r="C3">
+        <v>1.78</v>
+      </c>
+      <c r="D3">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.87</v>
+      </c>
+      <c r="F3">
+        <v>-0.02</v>
+      </c>
+      <c r="G3">
+        <v>-1.43</v>
+      </c>
+      <c r="H3">
+        <v>0.17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="3">
+        <f>1/40*SUM(A1:H5)</f>
+        <v>1.3592500000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2.1</v>
+      </c>
+      <c r="B4">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="C4">
+        <v>1.31</v>
+      </c>
+      <c r="D4">
+        <v>0.11</v>
+      </c>
+      <c r="E4">
+        <v>2.76</v>
+      </c>
+      <c r="F4">
+        <v>-0.68</v>
+      </c>
+      <c r="G4">
+        <v>2.62</v>
+      </c>
+      <c r="H4">
+        <v>2.0699999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1.26</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2.04</v>
+      </c>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5">
+        <v>1.48</v>
+      </c>
+      <c r="F5">
+        <v>2.11</v>
+      </c>
+      <c r="G5">
+        <v>1.63</v>
+      </c>
+      <c r="H5">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f>POWER(A1-$K$3, 2)</f>
+        <v>7.3305562499999907E-2</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ref="B8:H8" si="0">POWER(B1-$K$3, 2)</f>
+        <v>1.2304355625000001</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>0.10192056250000002</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>1.4580562499999979E-2</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>9.5635562500000021E-2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.53399556249999969</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.9039255625</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.44789556250000018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" ref="A9:H9" si="1">POWER(A2-$K$3, 2)</f>
+        <v>7.9655625000000091E-3</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>4.0773705624999996</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>3.3883605625000004</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.25933556250000012</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>3.8838555625</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.15268556249999995</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.44789556250000018</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>0.81135056249999948</v>
+      </c>
+      <c r="J9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="3">
+        <f>1/40 * SUM(A8:H12)</f>
+        <v>1.3107119375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" ref="A10:H10" si="2">POWER(A3-$K$3, 2)</f>
+        <v>0.10192056250000002</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="2"/>
+        <v>4.9762455624999982</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="2"/>
+        <v>0.17703056249999996</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>6.1466805625000021</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>0.26086556250000004</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.9023305625000002</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>7.7799155625000003</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>1.4143155625000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" ref="A11:H11" si="3">POWER(A4-$K$3, 2)</f>
+        <v>0.54871056250000005</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="3"/>
+        <v>0.6736305625000002</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="3"/>
+        <v>2.4255625000000015E-3</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="3"/>
+        <v>1.5606255624999998</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>1.9621005624999992</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="3"/>
+        <v>4.1585405624999998</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1.5894905625000002</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>0.50516556249999967</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" ref="A12:H12" si="4">POWER(A5-$K$3, 2)</f>
+        <v>9.8505625000000121E-3</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="4"/>
+        <v>0.12906056250000006</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="4"/>
+        <v>0.46342056249999997</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="4"/>
+        <v>0.13634556250000004</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="4"/>
+        <v>1.4580562499999979E-2</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="4"/>
+        <v>0.56362556249999973</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="4"/>
+        <v>7.3305562499999907E-2</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>0.84778056249999956</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>